--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -969,10 +981,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1016,28 +1028,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1062,28 +1074,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1316,10 +1328,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1363,28 +1375,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1409,28 +1421,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1605,10 +1617,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1652,28 +1664,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1698,28 +1710,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2010,10 +2022,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2057,28 +2069,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2103,28 +2115,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2415,10 +2427,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2462,28 +2474,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2508,28 +2520,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2762,10 +2774,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2809,28 +2821,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2855,28 +2867,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3051,10 +3063,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3098,28 +3110,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3144,28 +3156,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3369,10 +3381,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3416,28 +3428,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3462,28 +3474,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3658,10 +3670,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3705,28 +3717,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3751,28 +3763,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4063,10 +4075,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4110,28 +4122,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4156,28 +4168,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4352,10 +4364,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="J146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4399,28 +4411,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4445,28 +4457,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4699,10 +4711,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
+      <c r="J158" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K158" s="2" t="s">
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4746,28 +4758,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4792,28 +4804,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4988,10 +5000,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
+      <c r="J168" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5035,28 +5047,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5081,28 +5093,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5219,10 +5231,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
+      <c r="J176" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K176" s="2" t="s">
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
